--- a/2022/Symphony/APRIL/26.04.2022/MC Bank Statement April-2022.xlsx
+++ b/2022/Symphony/APRIL/26.04.2022/MC Bank Statement April-2022.xlsx
@@ -5185,7 +5185,7 @@
   <dimension ref="A1:G85"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -5696,14 +5696,14 @@
         <v>271</v>
       </c>
       <c r="C30" s="261">
-        <v>1000000</v>
+        <v>950000</v>
       </c>
       <c r="D30" s="261">
         <v>1000000</v>
       </c>
       <c r="E30" s="262">
         <f t="shared" si="0"/>
-        <v>68038</v>
+        <v>18038</v>
       </c>
       <c r="F30" s="2"/>
       <c r="G30" s="21"/>
@@ -5715,7 +5715,7 @@
       <c r="D31" s="261"/>
       <c r="E31" s="262">
         <f t="shared" si="0"/>
-        <v>68038</v>
+        <v>18038</v>
       </c>
       <c r="F31" s="2"/>
       <c r="G31" s="21"/>
@@ -5727,7 +5727,7 @@
       <c r="D32" s="261"/>
       <c r="E32" s="262">
         <f>E31+C32-D32</f>
-        <v>68038</v>
+        <v>18038</v>
       </c>
       <c r="F32" s="2"/>
       <c r="G32" s="21"/>
@@ -5739,7 +5739,7 @@
       <c r="D33" s="263"/>
       <c r="E33" s="262">
         <f t="shared" si="0"/>
-        <v>68038</v>
+        <v>18038</v>
       </c>
       <c r="F33" s="2"/>
       <c r="G33" s="21"/>
@@ -5751,7 +5751,7 @@
       <c r="D34" s="261"/>
       <c r="E34" s="262">
         <f t="shared" si="0"/>
-        <v>68038</v>
+        <v>18038</v>
       </c>
       <c r="F34" s="2"/>
       <c r="G34" s="21"/>
@@ -5763,7 +5763,7 @@
       <c r="D35" s="261"/>
       <c r="E35" s="262">
         <f t="shared" si="0"/>
-        <v>68038</v>
+        <v>18038</v>
       </c>
       <c r="F35" s="2"/>
       <c r="G35" s="21"/>
@@ -5775,7 +5775,7 @@
       <c r="D36" s="261"/>
       <c r="E36" s="262">
         <f t="shared" si="0"/>
-        <v>68038</v>
+        <v>18038</v>
       </c>
       <c r="F36" s="2"/>
       <c r="G36" s="21"/>
@@ -5787,7 +5787,7 @@
       <c r="D37" s="261"/>
       <c r="E37" s="262">
         <f t="shared" si="0"/>
-        <v>68038</v>
+        <v>18038</v>
       </c>
       <c r="F37" s="2"/>
       <c r="G37" s="21"/>
@@ -5799,7 +5799,7 @@
       <c r="D38" s="261"/>
       <c r="E38" s="262">
         <f t="shared" si="0"/>
-        <v>68038</v>
+        <v>18038</v>
       </c>
       <c r="F38" s="2"/>
       <c r="G38" s="21"/>
@@ -5811,7 +5811,7 @@
       <c r="D39" s="261"/>
       <c r="E39" s="262">
         <f t="shared" si="0"/>
-        <v>68038</v>
+        <v>18038</v>
       </c>
       <c r="F39" s="2"/>
       <c r="G39" s="21"/>
@@ -5823,7 +5823,7 @@
       <c r="D40" s="261"/>
       <c r="E40" s="262">
         <f t="shared" si="0"/>
-        <v>68038</v>
+        <v>18038</v>
       </c>
       <c r="F40" s="2"/>
       <c r="G40" s="21"/>
@@ -5835,7 +5835,7 @@
       <c r="D41" s="261"/>
       <c r="E41" s="262">
         <f t="shared" si="0"/>
-        <v>68038</v>
+        <v>18038</v>
       </c>
       <c r="F41" s="2"/>
       <c r="G41" s="21"/>
@@ -5847,7 +5847,7 @@
       <c r="D42" s="261"/>
       <c r="E42" s="262">
         <f t="shared" si="0"/>
-        <v>68038</v>
+        <v>18038</v>
       </c>
       <c r="F42" s="2"/>
       <c r="G42" s="21"/>
@@ -5859,7 +5859,7 @@
       <c r="D43" s="261"/>
       <c r="E43" s="262">
         <f t="shared" si="0"/>
-        <v>68038</v>
+        <v>18038</v>
       </c>
       <c r="F43" s="2"/>
       <c r="G43" s="21"/>
@@ -5871,7 +5871,7 @@
       <c r="D44" s="261"/>
       <c r="E44" s="262">
         <f t="shared" si="0"/>
-        <v>68038</v>
+        <v>18038</v>
       </c>
       <c r="F44" s="2"/>
       <c r="G44" s="21"/>
@@ -5883,7 +5883,7 @@
       <c r="D45" s="261"/>
       <c r="E45" s="262">
         <f t="shared" si="0"/>
-        <v>68038</v>
+        <v>18038</v>
       </c>
       <c r="F45" s="2"/>
       <c r="G45" s="21"/>
@@ -5895,7 +5895,7 @@
       <c r="D46" s="261"/>
       <c r="E46" s="262">
         <f t="shared" si="0"/>
-        <v>68038</v>
+        <v>18038</v>
       </c>
       <c r="F46" s="2"/>
       <c r="G46" s="21"/>
@@ -5907,7 +5907,7 @@
       <c r="D47" s="261"/>
       <c r="E47" s="262">
         <f t="shared" si="0"/>
-        <v>68038</v>
+        <v>18038</v>
       </c>
       <c r="F47" s="2"/>
       <c r="G47" s="21"/>
@@ -5919,7 +5919,7 @@
       <c r="D48" s="261"/>
       <c r="E48" s="262">
         <f t="shared" si="0"/>
-        <v>68038</v>
+        <v>18038</v>
       </c>
       <c r="F48" s="2"/>
       <c r="G48" s="21"/>
@@ -5931,7 +5931,7 @@
       <c r="D49" s="261"/>
       <c r="E49" s="262">
         <f t="shared" si="0"/>
-        <v>68038</v>
+        <v>18038</v>
       </c>
       <c r="F49" s="2"/>
       <c r="G49" s="21"/>
@@ -5943,7 +5943,7 @@
       <c r="D50" s="261"/>
       <c r="E50" s="262">
         <f t="shared" si="0"/>
-        <v>68038</v>
+        <v>18038</v>
       </c>
       <c r="F50" s="2"/>
       <c r="G50" s="21"/>
@@ -5955,7 +5955,7 @@
       <c r="D51" s="261"/>
       <c r="E51" s="262">
         <f t="shared" si="0"/>
-        <v>68038</v>
+        <v>18038</v>
       </c>
       <c r="F51" s="2"/>
       <c r="G51" s="21"/>
@@ -5967,7 +5967,7 @@
       <c r="D52" s="261"/>
       <c r="E52" s="262">
         <f t="shared" si="0"/>
-        <v>68038</v>
+        <v>18038</v>
       </c>
       <c r="F52" s="2"/>
       <c r="G52" s="21"/>
@@ -5979,7 +5979,7 @@
       <c r="D53" s="261"/>
       <c r="E53" s="262">
         <f t="shared" si="0"/>
-        <v>68038</v>
+        <v>18038</v>
       </c>
       <c r="F53" s="2"/>
       <c r="G53" s="21"/>
@@ -5991,7 +5991,7 @@
       <c r="D54" s="261"/>
       <c r="E54" s="262">
         <f t="shared" si="0"/>
-        <v>68038</v>
+        <v>18038</v>
       </c>
       <c r="F54" s="2"/>
       <c r="G54" s="21"/>
@@ -6003,7 +6003,7 @@
       <c r="D55" s="261"/>
       <c r="E55" s="262">
         <f t="shared" si="0"/>
-        <v>68038</v>
+        <v>18038</v>
       </c>
       <c r="F55" s="2"/>
     </row>
@@ -6014,7 +6014,7 @@
       <c r="D56" s="261"/>
       <c r="E56" s="262">
         <f t="shared" si="0"/>
-        <v>68038</v>
+        <v>18038</v>
       </c>
       <c r="F56" s="2"/>
     </row>
@@ -6025,7 +6025,7 @@
       <c r="D57" s="261"/>
       <c r="E57" s="262">
         <f t="shared" si="0"/>
-        <v>68038</v>
+        <v>18038</v>
       </c>
       <c r="F57" s="2"/>
     </row>
@@ -6036,7 +6036,7 @@
       <c r="D58" s="261"/>
       <c r="E58" s="262">
         <f t="shared" si="0"/>
-        <v>68038</v>
+        <v>18038</v>
       </c>
       <c r="F58" s="2"/>
     </row>
@@ -6047,7 +6047,7 @@
       <c r="D59" s="261"/>
       <c r="E59" s="262">
         <f t="shared" si="0"/>
-        <v>68038</v>
+        <v>18038</v>
       </c>
       <c r="F59" s="2"/>
     </row>
@@ -6058,7 +6058,7 @@
       <c r="D60" s="261"/>
       <c r="E60" s="262">
         <f t="shared" si="0"/>
-        <v>68038</v>
+        <v>18038</v>
       </c>
       <c r="F60" s="2"/>
     </row>
@@ -6069,7 +6069,7 @@
       <c r="D61" s="261"/>
       <c r="E61" s="262">
         <f t="shared" si="0"/>
-        <v>68038</v>
+        <v>18038</v>
       </c>
       <c r="F61" s="2"/>
     </row>
@@ -6080,7 +6080,7 @@
       <c r="D62" s="261"/>
       <c r="E62" s="262">
         <f t="shared" si="0"/>
-        <v>68038</v>
+        <v>18038</v>
       </c>
       <c r="F62" s="2"/>
     </row>
@@ -6091,7 +6091,7 @@
       <c r="D63" s="261"/>
       <c r="E63" s="262">
         <f t="shared" si="0"/>
-        <v>68038</v>
+        <v>18038</v>
       </c>
       <c r="F63" s="2"/>
     </row>
@@ -6102,7 +6102,7 @@
       <c r="D64" s="261"/>
       <c r="E64" s="262">
         <f t="shared" si="0"/>
-        <v>68038</v>
+        <v>18038</v>
       </c>
       <c r="F64" s="2"/>
     </row>
@@ -6113,7 +6113,7 @@
       <c r="D65" s="261"/>
       <c r="E65" s="262">
         <f t="shared" si="0"/>
-        <v>68038</v>
+        <v>18038</v>
       </c>
       <c r="F65" s="2"/>
     </row>
@@ -6124,7 +6124,7 @@
       <c r="D66" s="261"/>
       <c r="E66" s="262">
         <f t="shared" si="0"/>
-        <v>68038</v>
+        <v>18038</v>
       </c>
       <c r="F66" s="2"/>
     </row>
@@ -6135,7 +6135,7 @@
       <c r="D67" s="261"/>
       <c r="E67" s="262">
         <f t="shared" si="0"/>
-        <v>68038</v>
+        <v>18038</v>
       </c>
       <c r="F67" s="2"/>
     </row>
@@ -6146,7 +6146,7 @@
       <c r="D68" s="261"/>
       <c r="E68" s="262">
         <f t="shared" si="0"/>
-        <v>68038</v>
+        <v>18038</v>
       </c>
       <c r="F68" s="2"/>
     </row>
@@ -6157,7 +6157,7 @@
       <c r="D69" s="261"/>
       <c r="E69" s="262">
         <f t="shared" si="0"/>
-        <v>68038</v>
+        <v>18038</v>
       </c>
       <c r="F69" s="2"/>
     </row>
@@ -6168,7 +6168,7 @@
       <c r="D70" s="261"/>
       <c r="E70" s="262">
         <f t="shared" ref="E70:E82" si="1">E69+C70-D70</f>
-        <v>68038</v>
+        <v>18038</v>
       </c>
       <c r="F70" s="2"/>
     </row>
@@ -6179,7 +6179,7 @@
       <c r="D71" s="261"/>
       <c r="E71" s="262">
         <f t="shared" si="1"/>
-        <v>68038</v>
+        <v>18038</v>
       </c>
       <c r="F71" s="2"/>
     </row>
@@ -6190,7 +6190,7 @@
       <c r="D72" s="261"/>
       <c r="E72" s="262">
         <f t="shared" si="1"/>
-        <v>68038</v>
+        <v>18038</v>
       </c>
       <c r="F72" s="2"/>
     </row>
@@ -6201,7 +6201,7 @@
       <c r="D73" s="261"/>
       <c r="E73" s="262">
         <f t="shared" si="1"/>
-        <v>68038</v>
+        <v>18038</v>
       </c>
       <c r="F73" s="2"/>
     </row>
@@ -6212,7 +6212,7 @@
       <c r="D74" s="261"/>
       <c r="E74" s="262">
         <f t="shared" si="1"/>
-        <v>68038</v>
+        <v>18038</v>
       </c>
       <c r="F74" s="2"/>
     </row>
@@ -6223,7 +6223,7 @@
       <c r="D75" s="261"/>
       <c r="E75" s="262">
         <f t="shared" si="1"/>
-        <v>68038</v>
+        <v>18038</v>
       </c>
       <c r="F75" s="2"/>
     </row>
@@ -6234,7 +6234,7 @@
       <c r="D76" s="261"/>
       <c r="E76" s="262">
         <f t="shared" si="1"/>
-        <v>68038</v>
+        <v>18038</v>
       </c>
       <c r="F76" s="2"/>
     </row>
@@ -6245,7 +6245,7 @@
       <c r="D77" s="261"/>
       <c r="E77" s="262">
         <f t="shared" si="1"/>
-        <v>68038</v>
+        <v>18038</v>
       </c>
       <c r="F77" s="2"/>
     </row>
@@ -6256,7 +6256,7 @@
       <c r="D78" s="261"/>
       <c r="E78" s="262">
         <f t="shared" si="1"/>
-        <v>68038</v>
+        <v>18038</v>
       </c>
       <c r="F78" s="2"/>
     </row>
@@ -6267,7 +6267,7 @@
       <c r="D79" s="261"/>
       <c r="E79" s="262">
         <f t="shared" si="1"/>
-        <v>68038</v>
+        <v>18038</v>
       </c>
       <c r="F79" s="18"/>
       <c r="G79" s="2"/>
@@ -6279,7 +6279,7 @@
       <c r="D80" s="261"/>
       <c r="E80" s="262">
         <f t="shared" si="1"/>
-        <v>68038</v>
+        <v>18038</v>
       </c>
       <c r="F80" s="18"/>
       <c r="G80" s="2"/>
@@ -6291,7 +6291,7 @@
       <c r="D81" s="261"/>
       <c r="E81" s="262">
         <f t="shared" si="1"/>
-        <v>68038</v>
+        <v>18038</v>
       </c>
       <c r="F81" s="18"/>
       <c r="G81" s="2"/>
@@ -6303,7 +6303,7 @@
       <c r="D82" s="261"/>
       <c r="E82" s="262">
         <f t="shared" si="1"/>
-        <v>68038</v>
+        <v>18038</v>
       </c>
       <c r="F82" s="18"/>
       <c r="G82" s="2"/>
@@ -6313,7 +6313,7 @@
       <c r="B83" s="295"/>
       <c r="C83" s="262">
         <f>SUM(C5:C72)</f>
-        <v>8838038</v>
+        <v>8788038</v>
       </c>
       <c r="D83" s="262">
         <f>SUM(D5:D77)</f>
@@ -6321,7 +6321,7 @@
       </c>
       <c r="E83" s="262">
         <f>E71</f>
-        <v>68038</v>
+        <v>18038</v>
       </c>
       <c r="F83" s="19"/>
       <c r="G83" s="2"/>
@@ -9720,11 +9720,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
     <mergeCell ref="A1:Q1"/>
     <mergeCell ref="A2:Q2"/>
@@ -9739,6 +9734,11 @@
     <mergeCell ref="G4:G5"/>
     <mergeCell ref="H4:H5"/>
     <mergeCell ref="I4:I5"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0.39370078740157483" bottom="0" header="0" footer="0"/>
@@ -34440,7 +34440,7 @@
   <dimension ref="A1:Y223"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -34587,7 +34587,7 @@
         <v>18</v>
       </c>
       <c r="E6" s="254">
-        <v>68038</v>
+        <v>18038</v>
       </c>
       <c r="F6" s="7"/>
       <c r="G6" s="270"/>
@@ -34618,7 +34618,7 @@
         <v>66</v>
       </c>
       <c r="E7" s="287">
-        <v>10849.997699998319</v>
+        <v>60849.997699998319</v>
       </c>
       <c r="F7" s="7"/>
       <c r="G7" s="270"/>
